--- a/biology/Médecine/District_hospitalier_de_l'Ostrobotnie_de_l'Ouest/District_hospitalier_de_l'Ostrobotnie_de_l'Ouest.xlsx
+++ b/biology/Médecine/District_hospitalier_de_l'Ostrobotnie_de_l'Ouest/District_hospitalier_de_l'Ostrobotnie_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>District_hospitalier_de_l%27Ostrobotnie_de_l%27Ouest</t>
+          <t>District_hospitalier_de_l'Ostrobotnie_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le District hospitalier de l'Ostrobotnie de l'Ouest (finnois : Länsi-Pohjan sairaanhoitopiiri, sigle LPSHP) est un district hospitalier d'une partie de la Laponie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le District hospitalier de l'Ostrobotnie de l'Ouest (finnois : Länsi-Pohjan sairaanhoitopiiri, sigle LPSHP) est un district hospitalier d'une partie de la Laponie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>District_hospitalier_de_l%27Ostrobotnie_de_l%27Ouest</t>
+          <t>District_hospitalier_de_l'Ostrobotnie_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>District_hospitalier_de_l%27Ostrobotnie_de_l%27Ouest</t>
+          <t>District_hospitalier_de_l'Ostrobotnie_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les municipalités membres de LPSHP sont Kemi, Keminmaa, Simo, Tervola, Tornio et Ylitornio[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les municipalités membres de LPSHP sont Kemi, Keminmaa, Simo, Tervola, Tornio et Ylitornio.
 </t>
         </is>
       </c>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>District_hospitalier_de_l%27Ostrobotnie_de_l%27Ouest</t>
+          <t>District_hospitalier_de_l'Ostrobotnie_de_l'Ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers de LPSHP sont[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers de LPSHP sont:
 Hôpital de Keropudas (fi), Kiviranta, Tornio
 Hôpital central de l'Ostrobotnie de l'Ouest, Kemi</t>
         </is>
